--- a/medicine/Mort/Ancien_cimetière_anglais_de_Livourne/Ancien_cimetière_anglais_de_Livourne.xlsx
+++ b/medicine/Mort/Ancien_cimetière_anglais_de_Livourne/Ancien_cimetière_anglais_de_Livourne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_anglais_de_Livourne</t>
+          <t>Ancien_cimetière_anglais_de_Livourne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien cimetière anglais (en italien : Antico cimitero degli Inglesi) est un cimetière de Livourne, en Toscane, Italie. Il est l'un des plus anciens cimetières non catholiques du pays.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_anglais_de_Livourne</t>
+          <t>Ancien_cimetière_anglais_de_Livourne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du XVIe siècle, Livourne est devenue une base de la Royal Navy pour ses patrouilles sur les routes commerciales de la mer Méditerranée, ce qui a attiré dans la ville une forte communauté anglophone. Cette communauté, essentiellement constituée d'Anglicans, avait besoin d'un lieu de sépulture ce qui a mené à la création de ce cimetière. Comme le Cimetière anglais de Florence, il devint ensuite le lieu d'inhumation d'autres ressortissants non-catholiques de la ville.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_anglais_de_Livourne</t>
+          <t>Ancien_cimetière_anglais_de_Livourne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées au cimetière anglais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William Robert Broughton, navigateur anglais ;
 Hedvig Eleonora von Fersen, aristocrate suédoise ;
